--- a/ConfigTable/xlsxs/avatar_init.xlsx
+++ b/ConfigTable/xlsxs/avatar_init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\ConfigTable\xlsxs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C9405-C516-42BE-A8AB-666261FE4235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18450" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@人物初始化" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>race[.$!][funcInt]</t>
   </si>
@@ -282,14 +288,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,336 +303,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -640,247 +324,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,60 +351,92 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -970,7 +450,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1278,140 +758,140 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6666666666667" style="2"/>
-    <col min="3" max="4" width="19.8888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" style="2"/>
-    <col min="6" max="7" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="10" width="10.6666666666667" style="2"/>
+    <col min="1" max="1" width="22.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2"/>
+    <col min="3" max="4" width="19.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2"/>
+    <col min="6" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.6640625" style="2"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.1111111111111" style="2" customWidth="1"/>
-    <col min="15" max="19" width="10.6666666666667" style="2"/>
-    <col min="20" max="20" width="12.4444444444444" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.8888888888889" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.4444444444444" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.1111111111111" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.8888888888889" style="2" customWidth="1"/>
-    <col min="25" max="31" width="10.6666666666667" style="2"/>
-    <col min="32" max="32" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="10.6666666666667" style="2"/>
+    <col min="12" max="12" width="11.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="2" customWidth="1"/>
+    <col min="15" max="19" width="10.6640625" style="2"/>
+    <col min="20" max="20" width="12.44140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" style="2" customWidth="1"/>
+    <col min="25" max="31" width="10.6640625" style="2"/>
+    <col min="32" max="32" width="18.21875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:32" s="8" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:32">
+    <row r="2" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1507,7 +987,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
@@ -1801,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1899,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1997,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -2095,112 +1575,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2214,7 +1692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2228,7 +1706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2236,42 +1714,42 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ConfigTable/xlsxs/avatar_init.xlsx
+++ b/ConfigTable/xlsxs/avatar_init.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\ConfigTable\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C9405-C516-42BE-A8AB-666261FE4235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E38ACD-563E-4424-B2D4-A31073A5E34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1588,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
